--- a/natmiOut/OldD0/LR-pairs_lrc2p/L1cam-Egfr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/L1cam-Egfr.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.7559842195591</v>
+        <v>22.59487733333333</v>
       </c>
       <c r="H2">
-        <v>12.7559842195591</v>
+        <v>67.784632</v>
       </c>
       <c r="I2">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="J2">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N2">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O2">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P2">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q2">
-        <v>21.053622748943</v>
+        <v>47.11754960074666</v>
       </c>
       <c r="R2">
-        <v>21.053622748943</v>
+        <v>424.05794640672</v>
       </c>
       <c r="S2">
-        <v>0.008644590769212647</v>
+        <v>0.01296917953503858</v>
       </c>
       <c r="T2">
-        <v>0.008644590769212647</v>
+        <v>0.01296917953503858</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.7559842195591</v>
+        <v>22.59487733333333</v>
       </c>
       <c r="H3">
-        <v>12.7559842195591</v>
+        <v>67.784632</v>
       </c>
       <c r="I3">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="J3">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N3">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O3">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P3">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q3">
-        <v>1299.628702701569</v>
+        <v>2302.376719425778</v>
       </c>
       <c r="R3">
-        <v>1299.628702701569</v>
+        <v>20721.39047483201</v>
       </c>
       <c r="S3">
-        <v>0.5336258952080744</v>
+        <v>0.6337328083600701</v>
       </c>
       <c r="T3">
-        <v>0.5336258952080744</v>
+        <v>0.63373280836007</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.7559842195591</v>
+        <v>22.59487733333333</v>
       </c>
       <c r="H4">
-        <v>12.7559842195591</v>
+        <v>67.784632</v>
       </c>
       <c r="I4">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="J4">
-        <v>0.6195510204666006</v>
+        <v>0.7395019553569895</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.7549771648983</v>
+        <v>14.921347</v>
       </c>
       <c r="N4">
-        <v>14.7549771648983</v>
+        <v>44.76404100000001</v>
       </c>
       <c r="O4">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="P4">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="Q4">
-        <v>188.2142558753976</v>
+        <v>337.1460051131014</v>
       </c>
       <c r="R4">
-        <v>188.2142558753976</v>
+        <v>3034.314046017912</v>
       </c>
       <c r="S4">
-        <v>0.0772805344893137</v>
+        <v>0.09279996746188086</v>
       </c>
       <c r="T4">
-        <v>0.0772805344893137</v>
+        <v>0.09279996746188085</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.252694821842254</v>
+        <v>0.3045986666666667</v>
       </c>
       <c r="H5">
-        <v>0.252694821842254</v>
+        <v>0.9137960000000001</v>
       </c>
       <c r="I5">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="J5">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N5">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O5">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P5">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q5">
-        <v>0.4170702439033014</v>
+        <v>0.6351856915733333</v>
       </c>
       <c r="R5">
-        <v>0.4170702439033014</v>
+        <v>5.716671224160001</v>
       </c>
       <c r="S5">
-        <v>0.0001712485125981825</v>
+        <v>0.0001748358592903495</v>
       </c>
       <c r="T5">
-        <v>0.0001712485125981825</v>
+        <v>0.0001748358592903494</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.252694821842254</v>
+        <v>0.3045986666666667</v>
       </c>
       <c r="H6">
-        <v>0.252694821842254</v>
+        <v>0.9137960000000001</v>
       </c>
       <c r="I6">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="J6">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N6">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O6">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P6">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q6">
-        <v>25.74551973705748</v>
+        <v>31.03804763156933</v>
       </c>
       <c r="R6">
-        <v>25.74551973705748</v>
+        <v>279.342428684124</v>
       </c>
       <c r="S6">
-        <v>0.01057107771529357</v>
+        <v>0.008543271361983623</v>
       </c>
       <c r="T6">
-        <v>0.01057107771529357</v>
+        <v>0.008543271361983622</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.252694821842254</v>
+        <v>0.3045986666666667</v>
       </c>
       <c r="H7">
-        <v>0.252694821842254</v>
+        <v>0.9137960000000001</v>
       </c>
       <c r="I7">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="J7">
-        <v>0.0122732461913006</v>
+        <v>0.00996913177602551</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.7549771648983</v>
+        <v>14.921347</v>
       </c>
       <c r="N7">
-        <v>14.7549771648983</v>
+        <v>44.76404100000001</v>
       </c>
       <c r="O7">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="P7">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="Q7">
-        <v>3.728506325970502</v>
+        <v>4.545022401070668</v>
       </c>
       <c r="R7">
-        <v>3.728506325970502</v>
+        <v>40.90520160963601</v>
       </c>
       <c r="S7">
-        <v>0.001530919963408851</v>
+        <v>0.001251024554751539</v>
       </c>
       <c r="T7">
-        <v>0.001530919963408851</v>
+        <v>0.001251024554751538</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.58039885238086</v>
+        <v>7.654706</v>
       </c>
       <c r="H8">
-        <v>7.58039885238086</v>
+        <v>22.964118</v>
       </c>
       <c r="I8">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="J8">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.65048987099411</v>
+        <v>2.08532</v>
       </c>
       <c r="N8">
-        <v>1.65048987099411</v>
+        <v>6.25596</v>
       </c>
       <c r="O8">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136817</v>
       </c>
       <c r="P8">
-        <v>0.01395299254402353</v>
+        <v>0.01753772176136816</v>
       </c>
       <c r="Q8">
-        <v>12.51137152394999</v>
+        <v>15.96251151592</v>
       </c>
       <c r="R8">
-        <v>12.51137152394999</v>
+        <v>143.66260364328</v>
       </c>
       <c r="S8">
-        <v>0.005137153262212698</v>
+        <v>0.00439370636703923</v>
       </c>
       <c r="T8">
-        <v>0.005137153262212698</v>
+        <v>0.00439370636703923</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.58039885238086</v>
+        <v>7.654706</v>
       </c>
       <c r="H9">
-        <v>7.58039885238086</v>
+        <v>22.964118</v>
       </c>
       <c r="I9">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="J9">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.883843718528</v>
+        <v>101.898173</v>
       </c>
       <c r="N9">
-        <v>101.883843718528</v>
+        <v>305.694519</v>
       </c>
       <c r="O9">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756384</v>
       </c>
       <c r="P9">
-        <v>0.8613106549420034</v>
+        <v>0.8569724579756383</v>
       </c>
       <c r="Q9">
-        <v>772.3201720000806</v>
+        <v>780.000556252138</v>
       </c>
       <c r="R9">
-        <v>772.3201720000806</v>
+        <v>7020.005006269242</v>
       </c>
       <c r="S9">
-        <v>0.3171136820186354</v>
+        <v>0.2146963782535846</v>
       </c>
       <c r="T9">
-        <v>0.3171136820186354</v>
+        <v>0.2146963782535846</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.58039885238086</v>
+        <v>7.654706</v>
       </c>
       <c r="H10">
-        <v>7.58039885238086</v>
+        <v>22.964118</v>
       </c>
       <c r="I10">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="J10">
-        <v>0.3681757333420987</v>
+        <v>0.2505289128669849</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.7549771648983</v>
+        <v>14.921347</v>
       </c>
       <c r="N10">
-        <v>14.7549771648983</v>
+        <v>44.76404100000001</v>
       </c>
       <c r="O10">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="P10">
-        <v>0.1247363525139732</v>
+        <v>0.1254898202629935</v>
       </c>
       <c r="Q10">
-        <v>111.8486119677009</v>
+        <v>114.218524408982</v>
       </c>
       <c r="R10">
-        <v>111.8486119677009</v>
+        <v>1027.966719680838</v>
       </c>
       <c r="S10">
-        <v>0.04592489806125061</v>
+        <v>0.0314388282463611</v>
       </c>
       <c r="T10">
-        <v>0.04592489806125061</v>
+        <v>0.03143882824636109</v>
       </c>
     </row>
   </sheetData>
